--- a/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,74 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -126,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,45 +466,45 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="F1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -569,247 +512,263 @@
       <c r="F3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>123,93%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>225,62%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>5.621583643843498</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>9.171548408808324</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.295158404891308</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.273481544863178</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 8,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 11,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>39,48; 251,22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>107,55; 421,36</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.607238763194295</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>5.953756661652692</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.4105041365734532</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.009063014680582</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.220636549390118</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>12.59919469911294</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.85945906609298</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.436185089377428</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>122,92%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>74,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 4,38</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 4,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>57,76; 222,55</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>41,25; 118,7</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>3.049601096914383</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>3.756956727990791</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.426137395155161</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.7781240956505628</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1.527607569937822</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.297977257309463</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.5515889209351474</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.4191496327018977</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>4.545769706641177</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>5.107110537526424</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.719850473949135</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.192945291005205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>72,36%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>28,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 2,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 2,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,75; 267,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,64; 105,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.146124929859937</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.5658312164187009</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6150765194624439</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1958191586233122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-0.5252713397778491</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-1.135962206534396</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2793039857799816</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3142371930400124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2.74043775627192</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.163511137860988</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.301328564293562</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.057659607186523</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>118,9%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>82,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 4,1</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 4,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>67,9; 183,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>50,83; 115,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>3.01780390730791</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>3.54956589932198</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.267777291375084</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.833461641054364</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2.060245988171387</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.417953396830642</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.6964750784612488</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5361907279441518</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>4.186257483645702</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>4.646757408612288</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.047797795122726</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.258534942946788</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -817,13 +776,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
